--- a/Docs/Peer review/Peer Review 1 Dimitar Dyulgerov.xlsx
+++ b/Docs/Peer review/Peer Review 1 Dimitar Dyulgerov.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\RobotArmProjectRepo\robotarm\Docs\Peer review\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="71">
   <si>
     <t>Peerreview on cooperation competences and individual contribution to the product</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>Luuk</t>
+  </si>
+  <si>
+    <t>Jorn</t>
   </si>
 </sst>
 </file>
@@ -3992,7 +3995,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4045,7 +4048,9 @@
       <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="24" t="s">
+        <v>64</v>
+      </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5580,8 +5585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5621,7 +5626,9 @@
       <c r="A3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="23" t="s">
+        <v>70</v>
+      </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5632,7 +5639,9 @@
       <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="24" t="s">
+        <v>64</v>
+      </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -7164,6 +7173,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D56744E405C154428531902643A1D864" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="47859c174f902173abe39a3a136717a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d4e37b92-3781-485e-ab43-2f3c7326d66f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="46ad2e315c49b55117b2eb2ac4a198d1" ns2:_="">
     <xsd:import namespace="d4e37b92-3781-485e-ab43-2f3c7326d66f"/>
@@ -7309,22 +7333,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE0F3C78-6241-4DEE-B4A5-2E61362C8F6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B94DBC-1832-4941-970E-840BD071F5B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{053100B8-13FF-4A83-BBE0-496726CBB4B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7340,21 +7366,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B94DBC-1832-4941-970E-840BD071F5B2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE0F3C78-6241-4DEE-B4A5-2E61362C8F6B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>